--- a/src/main/java/com/qzkk/controller/task.xlsx
+++ b/src/main/java/com/qzkk/controller/task.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangshuai/Desktop/csexcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="110" windowWidth="27810" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,14 +100,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,12 +196,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -221,12 +231,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -433,15 +443,17 @@
   <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="8.7265625" customWidth="1"/>
+    <col min="2" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="6" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -505,7 +517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,7 +530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
